--- a/Extract2.xlsx
+++ b/Extract2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KWONG FUK PLACE, 8 KWONG FUK RD 8 大埔 廣福道 廣福華庭</t>
+          <t>PO HONG BUILDING, 37 PO HEUNG ST 37 大埔 寶鄉街 寶康大廈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,17 +498,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UMW/MW061204-035/0001</t>
+          <t>UMW/MW061204-007/0046</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMMON AREAS AND FACILITIES KWONG FUK PLACE NO. 8 KWONG FUK ROAD TAI PO NEW TERRITORIES</t>
+          <t>PO HONG BUILDING NOS.35 &amp; 39 PO HEUNG STREET TAI PO NEW TERRITORIES</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2015年10月2日</t>
+          <t>2015年9月2日</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,19 +518,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EB/9098/94/E03(MWIS12)</t>
+          <t>EB/9168/89/E03(MWIS12)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2021年2月18日</t>
+          <t>2016年6月3日</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TAI PO BUILDING, 26 - 50 KWONG FUK RD 26 - 50 大埔 廣福道 大埔大廈</t>
+          <t>YAM FAT BUILDING, 72 - 74 PO HEUNG ST 72 - 74 大埔 寶鄉街 欽發樓</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,22 +540,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>未獲遵從</t>
+          <t>已獲遵從</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UMB/5OD102/1501-009/0001</t>
+          <t>UMB/MB061201-039/0001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TAIPO BUILDING Nos.26-50 Kwong Fuk Road Tai Po New Territories</t>
+          <t>YAM FAT BUILDING, NOS.72/74 PO HEUNG STREET TAI PO NEW TERRITORIES</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2016年8月12日</t>
+          <t>2013年5月6日</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -565,15 +565,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MBI/9095/73/E03(MBIS15)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>MBI/9076/68/E03(MBIS12)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2021年10月4日</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CENTRAL PLAZA, 51 - 59 KWONG FUK RD 51 - 59 大埔 廣福道</t>
+          <t>YAM FAT BUILDING, 72 - 74 PO HEUNG ST 72 - 74 大埔 寶鄉街 欽發樓</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -588,17 +592,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UMW/MW061204-018/0111</t>
+          <t>UMW/MB061201-039/0001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COMMON AREA CENTRAL PLAZA NOS.51-59 KWONG FUK ROAD TAI PO NEW TERRITORIES</t>
+          <t>YAM FAT BUILDING, NOS.72/74 PO HEUNG STREET TAI PO NEW TERRITORIES</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2015年9月4日</t>
+          <t>2013年5月6日</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -608,19 +612,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EB/9280/88/E03(MWIS12)</t>
+          <t>MBI/9076/68/E03(MWIS12)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2016年3月17日</t>
+          <t>2014年12月5日</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PO HONG MANSION, 70 - 78 KWONG FUK RD 70 - 78 大埔 廣福道 寶康大廈</t>
+          <t>88 SQUARE, 88 PO HEUNG ST 88 大埔 寶鄉街</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -635,17 +639,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UMW/MW061201-079/0035</t>
+          <t>UMW/MW061204-021/0101</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PO HONG MANSION 70/78 KWONG FUK RD TAI PO</t>
+          <t>COMMON AREAS AND FACILITIES OF 88 SQUARE NO.88 PO HEUNG STREET TAI PO NEW TERRITORIES</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2013年7月30日</t>
+          <t>2015年9月11日</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -655,368 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EB/9262/81/E03(MWIS12)</t>
+          <t>EB/9016/92/E03(MWIS12)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2014年8月15日</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KWONG YAM BUILDING, 84 KWONG FUK RD 84 大埔 廣福道 廣蔭樓</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>未獲遵從</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UMB/MB061206-015/0002</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>(中文地址只供參考: 大埔廣福道84號廣蔭樓)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2021年7月14日</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>強制驗樓通知</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>MBI/9015/71/E03(MBIS12)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KWONG YAM BUILDING, 84 KWONG FUK RD 84 大埔 廣福道 廣蔭樓</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>未獲遵從</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UMW/MB061206-015/0013</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>(中文地址只供參考: 大埔廣福道84號廣蔭樓)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2021年7月14日</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>強制驗窗通知</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>MBI/9015/71/E03(MWIS12)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PO KEE BUILDING, 102 - 104 KWONG FUK RD 102 - 104 大埔 廣福道 寶基樓</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>未獲遵從</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>UMB/MB061206-012/0002</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>寶基樓 大埔廣福道102/104號 / 廣褔坊23-27號</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2018年3月19日</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>強制驗樓通知</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>MBI/9123/70/E03(MBIS12)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MAN WAH BUILDING, 135A KWONG FUK RD 135A 大埔 廣福道 文華樓</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>未獲遵從</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>UMB/5OD102/1501-004/0002</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>文華樓 大埔廣福道135A號</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2020年11月25日</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>強制驗樓通知</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>MBI/9195/73/E03(MBIS15)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MAN WAH BUILDING, 135A KWONG FUK RD 135A 大埔 廣福道 文華樓</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>未獲遵從</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UMW/5OD102/1501-004/0013</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>大埔 大埔 廣福道135A號 文華樓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020年11月25日</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>強制驗窗通知</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>MBI/9195/73/E03(MWIS15)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TAI PO COMMERCIAL CENTRE, 152 - 172 KWONG FUK RD 152 - 172 大埔 廣福道 大埔商業中心</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>已獲遵從</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>UMB/5OD102/1501-016/0001</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Tai Po Commercial Centre Nos. 152-172 Kwong Fuk Road Tai Po New Territories</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2016年8月12日</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>強制驗樓通知</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>MBI/9418/79/E03(MBIS15)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2022年8月31日</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TAI PO COMMERCIAL CENTRE, 152 - 172 KWONG FUK RD 152 - 172 大埔 廣福道 大埔商業中心</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>已獲遵從</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UMW/5OD102/1501-016/0001</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Tai Po Commercial Centre Nos. 152-172 Kwong Fuk Road Tai Po New Territories</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2016年8月12日</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>強制驗窗通知</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>MBI/9418/79/E03(MWIS15)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2021年8月17日</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>WONG SHIU CHI SECONDARY SCHOOL EXTENSION 3, 182 KWONG FUK RD 182 大埔 廣福道 王肇枝中學</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>樓宇公用部份</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>已獲遵從</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>UMW/MW061204-017/0001</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>WHOLE PIECE OF LAND OF TAI PO, N.T. - D.D.6 LOT NO.1640 &amp; EXT.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2015年9月25日</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>強制驗窗通知</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>EB/9013/85/E03(MWIS12)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2016年2月15日</t>
+          <t>2016年3月29日</t>
         </is>
       </c>
     </row>
